--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>179.8169556666667</v>
+        <v>161.292709</v>
       </c>
       <c r="H2">
-        <v>539.450867</v>
+        <v>483.8781269999999</v>
       </c>
       <c r="I2">
-        <v>0.2160634987929968</v>
+        <v>0.2350858997670666</v>
       </c>
       <c r="J2">
-        <v>0.2160634987929969</v>
+        <v>0.2350858997670667</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>10814.79937522552</v>
+        <v>11070.70815239887</v>
       </c>
       <c r="R2">
-        <v>97333.19437702965</v>
+        <v>99636.37337158987</v>
       </c>
       <c r="S2">
-        <v>0.116100492595671</v>
+        <v>0.1273155068981433</v>
       </c>
       <c r="T2">
-        <v>0.116100492595671</v>
+        <v>0.1273155068981434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>179.8169556666667</v>
+        <v>161.292709</v>
       </c>
       <c r="H3">
-        <v>539.450867</v>
+        <v>483.8781269999999</v>
       </c>
       <c r="I3">
-        <v>0.2160634987929968</v>
+        <v>0.2350858997670666</v>
       </c>
       <c r="J3">
-        <v>0.2160634987929969</v>
+        <v>0.2350858997670667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>1986.990786449357</v>
+        <v>1782.296477638939</v>
       </c>
       <c r="R3">
-        <v>17882.91707804421</v>
+        <v>16040.66829875045</v>
       </c>
       <c r="S3">
-        <v>0.0213310114303456</v>
+        <v>0.02049678994059722</v>
       </c>
       <c r="T3">
-        <v>0.02133101143034561</v>
+        <v>0.02049678994059722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>179.8169556666667</v>
+        <v>161.292709</v>
       </c>
       <c r="H4">
-        <v>539.450867</v>
+        <v>483.8781269999999</v>
       </c>
       <c r="I4">
-        <v>0.2160634987929968</v>
+        <v>0.2350858997670666</v>
       </c>
       <c r="J4">
-        <v>0.2160634987929969</v>
+        <v>0.2350858997670667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>2203.627421592241</v>
+        <v>2614.699277393028</v>
       </c>
       <c r="R4">
-        <v>19832.64679433017</v>
+        <v>23532.29349653725</v>
       </c>
       <c r="S4">
-        <v>0.0236566782487218</v>
+        <v>0.03006959982188395</v>
       </c>
       <c r="T4">
-        <v>0.0236566782487218</v>
+        <v>0.03006959982188396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>179.8169556666667</v>
+        <v>161.292709</v>
       </c>
       <c r="H5">
-        <v>539.450867</v>
+        <v>483.8781269999999</v>
       </c>
       <c r="I5">
-        <v>0.2160634987929968</v>
+        <v>0.2350858997670666</v>
       </c>
       <c r="J5">
-        <v>0.2160634987929969</v>
+        <v>0.2350858997670667</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>2761.662790533288</v>
+        <v>3278.348881420794</v>
       </c>
       <c r="R5">
-        <v>24854.96511479959</v>
+        <v>29505.13993278715</v>
       </c>
       <c r="S5">
-        <v>0.02964737479074725</v>
+        <v>0.0377017119303798</v>
       </c>
       <c r="T5">
-        <v>0.02964737479074725</v>
+        <v>0.03770171193037981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>179.8169556666667</v>
+        <v>161.292709</v>
       </c>
       <c r="H6">
-        <v>539.450867</v>
+        <v>483.8781269999999</v>
       </c>
       <c r="I6">
-        <v>0.2160634987929968</v>
+        <v>0.2350858997670666</v>
       </c>
       <c r="J6">
-        <v>0.2160634987929969</v>
+        <v>0.2350858997670667</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>2359.306168703111</v>
+        <v>1695.819929350952</v>
       </c>
       <c r="R6">
-        <v>21233.755518328</v>
+        <v>15262.37936415857</v>
       </c>
       <c r="S6">
-        <v>0.0253279417275112</v>
+        <v>0.01950229117606235</v>
       </c>
       <c r="T6">
-        <v>0.0253279417275112</v>
+        <v>0.01950229117606235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>411.728637</v>
       </c>
       <c r="I7">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689186</v>
       </c>
       <c r="J7">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689187</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>8254.250532495767</v>
+        <v>9419.990952002625</v>
       </c>
       <c r="R7">
-        <v>74288.2547924619</v>
+        <v>84779.91856802363</v>
       </c>
       <c r="S7">
-        <v>0.08861214337698747</v>
+        <v>0.1083319067326568</v>
       </c>
       <c r="T7">
-        <v>0.08861214337698749</v>
+        <v>0.1083319067326568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>411.728637</v>
       </c>
       <c r="I8">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689186</v>
       </c>
       <c r="J8">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689187</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>1516.544060418299</v>
@@ -948,10 +948,10 @@
         <v>13648.89654376469</v>
       </c>
       <c r="S8">
-        <v>0.01628060829874913</v>
+        <v>0.01744058041523626</v>
       </c>
       <c r="T8">
-        <v>0.01628060829874914</v>
+        <v>0.01744058041523627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>411.728637</v>
       </c>
       <c r="I9">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689186</v>
       </c>
       <c r="J9">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689187</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>1681.889065808097</v>
+        <v>2224.829992461958</v>
       </c>
       <c r="R9">
-        <v>15137.00159227287</v>
+        <v>20023.46993215762</v>
       </c>
       <c r="S9">
-        <v>0.01805564229687997</v>
+        <v>0.02558601982395399</v>
       </c>
       <c r="T9">
-        <v>0.01805564229687997</v>
+        <v>0.02558601982395399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>411.728637</v>
       </c>
       <c r="I10">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689186</v>
       </c>
       <c r="J10">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689187</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>2107.802074586131</v>
+        <v>2789.524967632724</v>
       </c>
       <c r="R10">
-        <v>18970.21867127518</v>
+        <v>25105.72470869452</v>
       </c>
       <c r="S10">
-        <v>0.02262796106178567</v>
+        <v>0.03208013257780903</v>
       </c>
       <c r="T10">
-        <v>0.02262796106178568</v>
+        <v>0.03208013257780904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>411.728637</v>
       </c>
       <c r="I11">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689186</v>
       </c>
       <c r="J11">
-        <v>0.1649075667599061</v>
+        <v>0.2000330076689187</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>1800.708780964521</v>
+        <v>1442.961748318712</v>
       </c>
       <c r="R11">
-        <v>16206.37902868069</v>
+        <v>12986.65573486841</v>
       </c>
       <c r="S11">
-        <v>0.01933121172550384</v>
+        <v>0.01659436811926256</v>
       </c>
       <c r="T11">
-        <v>0.01933121172550384</v>
+        <v>0.01659436811926256</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>220.2647753333333</v>
+        <v>160.3204953333334</v>
       </c>
       <c r="H12">
-        <v>660.794326</v>
+        <v>480.961486</v>
       </c>
       <c r="I12">
-        <v>0.2646645742773829</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="J12">
-        <v>0.264664574277383</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>13247.46793664411</v>
+        <v>11003.97795837975</v>
       </c>
       <c r="R12">
-        <v>119227.211429797</v>
+        <v>99035.80162541776</v>
       </c>
       <c r="S12">
-        <v>0.1422160041741566</v>
+        <v>0.1265480954227433</v>
       </c>
       <c r="T12">
-        <v>0.1422160041741566</v>
+        <v>0.1265480954227433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>220.2647753333333</v>
+        <v>160.3204953333334</v>
       </c>
       <c r="H13">
-        <v>660.794326</v>
+        <v>480.961486</v>
       </c>
       <c r="I13">
-        <v>0.2646645742773829</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="J13">
-        <v>0.264664574277383</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>2433.942213869891</v>
+        <v>1771.553444030319</v>
       </c>
       <c r="R13">
-        <v>21905.47992482902</v>
+        <v>15943.98099627287</v>
       </c>
       <c r="S13">
-        <v>0.02612918466402894</v>
+        <v>0.02037324276089771</v>
       </c>
       <c r="T13">
-        <v>0.02612918466402895</v>
+        <v>0.02037324276089771</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>220.2647753333333</v>
+        <v>160.3204953333334</v>
       </c>
       <c r="H14">
-        <v>660.794326</v>
+        <v>480.961486</v>
       </c>
       <c r="I14">
-        <v>0.2646645742773829</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="J14">
-        <v>0.264664574277383</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>2699.308845130029</v>
+        <v>2598.938823076988</v>
       </c>
       <c r="R14">
-        <v>24293.77960617026</v>
+        <v>23390.44940769289</v>
       </c>
       <c r="S14">
-        <v>0.0289779843078146</v>
+        <v>0.02988835123303403</v>
       </c>
       <c r="T14">
-        <v>0.0289779843078146</v>
+        <v>0.02988835123303403</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>220.2647753333333</v>
+        <v>160.3204953333334</v>
       </c>
       <c r="H15">
-        <v>660.794326</v>
+        <v>480.961486</v>
       </c>
       <c r="I15">
-        <v>0.2646645742773829</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="J15">
-        <v>0.264664574277383</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>3382.868049611871</v>
+        <v>3258.58818915901</v>
       </c>
       <c r="R15">
-        <v>30445.81244650684</v>
+        <v>29327.29370243108</v>
       </c>
       <c r="S15">
-        <v>0.03631622125564442</v>
+        <v>0.03747445975126585</v>
       </c>
       <c r="T15">
-        <v>0.03631622125564442</v>
+        <v>0.03747445975126585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>220.2647753333333</v>
+        <v>160.3204953333334</v>
       </c>
       <c r="H16">
-        <v>660.794326</v>
+        <v>480.961486</v>
       </c>
       <c r="I16">
-        <v>0.2646645742773829</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="J16">
-        <v>0.264664574277383</v>
+        <v>0.2336688876404109</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>2890.005790973757</v>
+        <v>1685.598144859003</v>
       </c>
       <c r="R16">
-        <v>26010.05211876382</v>
+        <v>15170.38330373103</v>
       </c>
       <c r="S16">
-        <v>0.03102517987573841</v>
+        <v>0.01938473847247002</v>
       </c>
       <c r="T16">
-        <v>0.03102517987573841</v>
+        <v>0.01938473847247003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>109.2805746666667</v>
+        <v>74.79809033333333</v>
       </c>
       <c r="H17">
-        <v>327.841724</v>
+        <v>224.394271</v>
       </c>
       <c r="I17">
-        <v>0.1313087702160797</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="J17">
-        <v>0.1313087702160798</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>6572.50305594199</v>
+        <v>5133.944575492876</v>
       </c>
       <c r="R17">
-        <v>59152.52750347791</v>
+        <v>46205.50117943588</v>
       </c>
       <c r="S17">
-        <v>0.07055802108816336</v>
+        <v>0.05904145850635723</v>
       </c>
       <c r="T17">
-        <v>0.07055802108816336</v>
+        <v>0.05904145850635724</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>109.2805746666667</v>
+        <v>74.79809033333333</v>
       </c>
       <c r="H18">
-        <v>327.841724</v>
+        <v>224.394271</v>
       </c>
       <c r="I18">
-        <v>0.1313087702160797</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="J18">
-        <v>0.1313087702160798</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>1207.558509682909</v>
+        <v>826.5244831074116</v>
       </c>
       <c r="R18">
-        <v>10868.02658714618</v>
+        <v>7438.720347966704</v>
       </c>
       <c r="S18">
-        <v>0.01296354494873434</v>
+        <v>0.009505207985068617</v>
       </c>
       <c r="T18">
-        <v>0.01296354494873434</v>
+        <v>0.009505207985068619</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>109.2805746666667</v>
+        <v>74.79809033333333</v>
       </c>
       <c r="H19">
-        <v>327.841724</v>
+        <v>224.394271</v>
       </c>
       <c r="I19">
-        <v>0.1313087702160797</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="J19">
-        <v>0.1313087702160798</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>1339.215593379471</v>
+        <v>1212.544038459575</v>
       </c>
       <c r="R19">
-        <v>12052.94034041524</v>
+        <v>10912.89634613618</v>
       </c>
       <c r="S19">
-        <v>0.01437692782719034</v>
+        <v>0.01394451527108061</v>
       </c>
       <c r="T19">
-        <v>0.01437692782719034</v>
+        <v>0.01394451527108061</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>109.2805746666667</v>
+        <v>74.79809033333333</v>
       </c>
       <c r="H20">
-        <v>327.841724</v>
+        <v>224.394271</v>
       </c>
       <c r="I20">
-        <v>0.1313087702160797</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="J20">
-        <v>0.1313087702160798</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>1678.351719759279</v>
+        <v>1520.305767675431</v>
       </c>
       <c r="R20">
-        <v>15105.16547783351</v>
+        <v>13682.75190907888</v>
       </c>
       <c r="S20">
-        <v>0.01801766770257636</v>
+        <v>0.01748384085166466</v>
       </c>
       <c r="T20">
-        <v>0.01801766770257636</v>
+        <v>0.01748384085166466</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>109.2805746666667</v>
+        <v>74.79809033333333</v>
       </c>
       <c r="H21">
-        <v>327.841724</v>
+        <v>224.394271</v>
       </c>
       <c r="I21">
-        <v>0.1313087702160797</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="J21">
-        <v>0.1313087702160798</v>
+        <v>0.1090190404506753</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>1433.826598690892</v>
+        <v>786.4217363021627</v>
       </c>
       <c r="R21">
-        <v>12904.43938821803</v>
+        <v>7077.795626719464</v>
       </c>
       <c r="S21">
-        <v>0.01539260864941535</v>
+        <v>0.009044017836504199</v>
       </c>
       <c r="T21">
-        <v>0.01539260864941535</v>
+        <v>0.009044017836504201</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>185.6360623333333</v>
+        <v>152.4469883333333</v>
       </c>
       <c r="H22">
-        <v>556.908187</v>
+        <v>457.340965</v>
       </c>
       <c r="I22">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729284</v>
       </c>
       <c r="J22">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729285</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N22">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O22">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P22">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q22">
-        <v>11164.78011485998</v>
+        <v>10463.56110585563</v>
       </c>
       <c r="R22">
-        <v>100483.0210337398</v>
+        <v>94172.04995270062</v>
       </c>
       <c r="S22">
-        <v>0.1198576530256314</v>
+        <v>0.1203331862617155</v>
       </c>
       <c r="T22">
-        <v>0.1198576530256314</v>
+        <v>0.1203331862617155</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>185.6360623333333</v>
+        <v>152.4469883333333</v>
       </c>
       <c r="H23">
-        <v>556.908187</v>
+        <v>457.340965</v>
       </c>
       <c r="I23">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729284</v>
       </c>
       <c r="J23">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729285</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P23">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q23">
-        <v>2051.292349609321</v>
+        <v>1684.550603791796</v>
       </c>
       <c r="R23">
-        <v>18461.63114648389</v>
+        <v>15160.95543412616</v>
       </c>
       <c r="S23">
-        <v>0.02202131024205036</v>
+        <v>0.01937269152658976</v>
       </c>
       <c r="T23">
-        <v>0.02202131024205036</v>
+        <v>0.01937269152658977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>185.6360623333333</v>
+        <v>152.4469883333333</v>
       </c>
       <c r="H24">
-        <v>556.908187</v>
+        <v>457.340965</v>
       </c>
       <c r="I24">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729284</v>
       </c>
       <c r="J24">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729285</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N24">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q24">
-        <v>2274.939623338153</v>
+        <v>2471.302222569218</v>
       </c>
       <c r="R24">
-        <v>20474.45661004337</v>
+        <v>22241.72000312295</v>
       </c>
       <c r="S24">
-        <v>0.02442223861313767</v>
+        <v>0.02842050308197592</v>
       </c>
       <c r="T24">
-        <v>0.02442223861313766</v>
+        <v>0.02842050308197593</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>185.6360623333333</v>
+        <v>152.4469883333333</v>
       </c>
       <c r="H25">
-        <v>556.908187</v>
+        <v>457.340965</v>
       </c>
       <c r="I25">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729284</v>
       </c>
       <c r="J25">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729285</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N25">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q25">
-        <v>2851.033730531115</v>
+        <v>3098.555519199273</v>
       </c>
       <c r="R25">
-        <v>25659.30357478003</v>
+        <v>27886.99967279346</v>
       </c>
       <c r="S25">
-        <v>0.03060680175721092</v>
+        <v>0.03563404988626798</v>
       </c>
       <c r="T25">
-        <v>0.03060680175721092</v>
+        <v>0.03563404988626799</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>185.6360623333333</v>
+        <v>152.4469883333333</v>
       </c>
       <c r="H26">
-        <v>556.908187</v>
+        <v>457.340965</v>
       </c>
       <c r="I26">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729284</v>
       </c>
       <c r="J26">
-        <v>0.2230555899536344</v>
+        <v>0.2221931644729285</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N26">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q26">
-        <v>2435.656333814671</v>
+        <v>1602.816659153507</v>
       </c>
       <c r="R26">
-        <v>21920.90700433204</v>
+        <v>14425.34993238156</v>
       </c>
       <c r="S26">
-        <v>0.02614758631560399</v>
+        <v>0.01843273371637925</v>
       </c>
       <c r="T26">
-        <v>0.02614758631560399</v>
+        <v>0.01843273371637925</v>
       </c>
     </row>
   </sheetData>
